--- a/mbs-perturbation/mega/welm/smote/WELM_rbf_smote_results.xlsx
+++ b/mbs-perturbation/mega/welm/smote/WELM_rbf_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4946236559139785</v>
+        <v>0.5266272189349113</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005291005291005291</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4777951253361089</v>
+        <v>0.4639747191011236</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.532258064516129</v>
+        <v>0.485207100591716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005714285714285714</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01136363636363636</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4477447425670776</v>
+        <v>0.468040370058873</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.489247311827957</v>
+        <v>0.5029585798816568</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4848322729901677</v>
+        <v>0.4702906162464985</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5121293800539084</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005494505494505495</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01092896174863388</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4562910634339206</v>
+        <v>0.4802937447168217</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4797843665768194</v>
+        <v>0.4467455621301775</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.466845199976713</v>
+        <v>0.458954563161809</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5016085557777585</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0032999592999593</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006563782780348784</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4667016808607976</v>
+        <v>0.4683108026570252</v>
       </c>
     </row>
   </sheetData>
